--- a/koma_sim2_py.xlsx
+++ b/koma_sim2_py.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\田中勇輝\Documents\Tanaka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skmgr\Documents\Tanaka\git_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2928B2-6F87-4C71-9418-0E524BEC0628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE2CE8D-629E-40FE-B85E-EA5E1481A973}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mesh" sheetId="1" r:id="rId1"/>
@@ -22,22 +22,11 @@
     <sheet name="kousatsu" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="78">
   <si>
     <t>mm</t>
   </si>
@@ -647,6 +636,10 @@
     <rPh sb="31" eb="33">
       <t>ゾウカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>last</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2687,9 +2680,9 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2703,7 +2696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>10</v>
       </c>
@@ -2717,7 +2710,7 @@
         <v>-0.81292274603577419</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>9</v>
       </c>
@@ -2739,7 +2732,7 @@
         <v>2.9266606687500009E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>8</v>
       </c>
@@ -2753,7 +2746,7 @@
         <v>-0.1395239905992412</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>7</v>
       </c>
@@ -2767,7 +2760,7 @@
         <v>-0.57379320989239946</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2781,7 +2774,7 @@
         <v>-0.74314763634352343</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2795,7 +2788,7 @@
         <v>-0.69887439821969366</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2809,7 +2802,7 @@
         <v>-0.56987681829689152</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2823,7 +2816,7 @@
         <v>-0.31724534786273673</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2837,7 +2830,7 @@
         <v>-0.38725068569844567</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2851,7 +2844,7 @@
         <v>-0.17564519151558439</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0.95</v>
       </c>
@@ -2865,7 +2858,7 @@
         <v>-0.17574000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0.9</v>
       </c>
@@ -2879,7 +2872,7 @@
         <v>-0.14818833658893549</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>0.85</v>
       </c>
@@ -2893,7 +2886,7 @@
         <v>-0.18064261372588269</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0.79999999999999993</v>
       </c>
@@ -2907,7 +2900,7 @@
         <v>-0.1192949842496635</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>0.74999999999999989</v>
       </c>
@@ -2921,7 +2914,7 @@
         <v>-0.17366063715060301</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>0.69999999999999984</v>
       </c>
@@ -2935,7 +2928,7 @@
         <v>-0.15580684575347331</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>0.6499999999999998</v>
       </c>
@@ -2949,7 +2942,7 @@
         <v>-0.136924499957289</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>0.59999999999999976</v>
       </c>
@@ -2963,7 +2956,7 @@
         <v>-9.5693863065879362E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>0.54999999999999971</v>
       </c>
@@ -2977,7 +2970,7 @@
         <v>-7.7888229151487312E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>0.49999999999999972</v>
       </c>
@@ -2991,7 +2984,7 @@
         <v>-5.2970507890338817E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>0.44999999999999968</v>
       </c>
@@ -3005,7 +2998,7 @@
         <v>-9.0561364684810922E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>0.39999999999999969</v>
       </c>
@@ -3032,13 +3025,13 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:FN30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:170" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3550,7 +3543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:170" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>20</v>
       </c>
@@ -3960,7 +3953,7 @@
         <v>-0.45721696701980852</v>
       </c>
     </row>
-    <row r="3" spans="1:170" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>25</v>
       </c>
@@ -4370,7 +4363,7 @@
         <v>-0.35510582884603109</v>
       </c>
     </row>
-    <row r="4" spans="1:170" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>30</v>
       </c>
@@ -4780,7 +4773,7 @@
         <v>-0.26540593528149492</v>
       </c>
     </row>
-    <row r="5" spans="1:170" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>35</v>
       </c>
@@ -5190,7 +5183,7 @@
         <v>-0.2010443229224374</v>
       </c>
     </row>
-    <row r="6" spans="1:170" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>40</v>
       </c>
@@ -5600,7 +5593,7 @@
         <v>-0.15404390885795519</v>
       </c>
     </row>
-    <row r="7" spans="1:170" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>45</v>
       </c>
@@ -6010,7 +6003,7 @@
         <v>-0.10153633705832581</v>
       </c>
     </row>
-    <row r="8" spans="1:170" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>50</v>
       </c>
@@ -6420,7 +6413,7 @@
         <v>-5.2970484288937081E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:170" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>55</v>
       </c>
@@ -6830,7 +6823,7 @@
         <v>-5.7597395048210091E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:170" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>60</v>
       </c>
@@ -7240,7 +7233,7 @@
         <v>-7.2535271167068524E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:170" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>65</v>
       </c>
@@ -7650,7 +7643,7 @@
         <v>-4.9574958188303098E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:170" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>70</v>
       </c>
@@ -8060,7 +8053,7 @@
         <v>-5.8899502059126772E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:170" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>75</v>
       </c>
@@ -8410,7 +8403,7 @@
         <v>-4.4584762406570652E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:170" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>80</v>
       </c>
@@ -8775,7 +8768,7 @@
         <v>-5.9629593334242538E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:170" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:170" x14ac:dyDescent="0.4">
       <c r="FE15">
         <v>85</v>
       </c>
@@ -8801,7 +8794,7 @@
         <v>-7.7276010012951563E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:170" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:170" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -8908,7 +8901,7 @@
         <v>-5.2103291793958312E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:169" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:169" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -8958,7 +8951,7 @@
         <v>-5.0127754011645917E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:169" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:169" x14ac:dyDescent="0.4">
       <c r="FE18">
         <v>100</v>
       </c>
@@ -8984,7 +8977,10 @@
         <v>-7.6598290289785251E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:169" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:169" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
       <c r="FE19">
         <v>105</v>
       </c>
@@ -9010,7 +9006,7 @@
         <v>-8.3635721370142038E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:169" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:169" x14ac:dyDescent="0.4">
       <c r="FE20">
         <v>110</v>
       </c>
@@ -9036,7 +9032,7 @@
         <v>-9.7112784408780725E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:169" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:169" x14ac:dyDescent="0.4">
       <c r="FE21">
         <v>115</v>
       </c>
@@ -9062,7 +9058,7 @@
         <v>-5.3313628956939897E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:169" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:169" x14ac:dyDescent="0.4">
       <c r="FE22">
         <v>120</v>
       </c>
@@ -9088,7 +9084,7 @@
         <v>-6.5380700617030746E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:169" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:169" x14ac:dyDescent="0.4">
       <c r="FE23">
         <v>125</v>
       </c>
@@ -9114,7 +9110,7 @@
         <v>-9.796291861557771E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:169" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:169" x14ac:dyDescent="0.4">
       <c r="FE24">
         <v>130</v>
       </c>
@@ -9140,7 +9136,7 @@
         <v>-3.3680546140022201E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:169" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:169" x14ac:dyDescent="0.4">
       <c r="FE25">
         <v>135</v>
       </c>
@@ -9166,7 +9162,7 @@
         <v>-6.6000029309711328E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:169" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:169" x14ac:dyDescent="0.4">
       <c r="FE26">
         <v>140</v>
       </c>
@@ -9192,7 +9188,7 @@
         <v>-0.11510497644793299</v>
       </c>
     </row>
-    <row r="27" spans="1:169" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:169" x14ac:dyDescent="0.4">
       <c r="FE27">
         <v>145</v>
       </c>
@@ -9218,7 +9214,7 @@
         <v>-0.1105381329431641</v>
       </c>
     </row>
-    <row r="28" spans="1:169" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:169" x14ac:dyDescent="0.4">
       <c r="FE28">
         <v>150</v>
       </c>
@@ -9244,7 +9240,7 @@
         <v>-6.6623809551391952E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:169" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:169" x14ac:dyDescent="0.4">
       <c r="FE30" t="s">
         <v>19</v>
       </c>
@@ -9255,7 +9251,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9268,9 +9264,9 @@
       <selection activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9356,7 +9352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>30</v>
       </c>
@@ -9442,7 +9438,7 @@
         <v>0.1202829621611884</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>35</v>
       </c>
@@ -9528,7 +9524,7 @@
         <v>5.8388269255019568E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>40</v>
       </c>
@@ -9614,7 +9610,7 @@
         <v>-3.3345158297580148E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>45</v>
       </c>
@@ -9700,7 +9696,7 @@
         <v>-9.6104821728271117E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>50</v>
       </c>
@@ -9786,7 +9782,7 @@
         <v>-5.2970514743155207E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>55</v>
       </c>
@@ -9872,7 +9868,7 @@
         <v>-0.1000303762510075</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>60</v>
       </c>
@@ -9958,7 +9954,7 @@
         <v>-9.281923158498602E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>65</v>
       </c>
@@ -10044,7 +10040,7 @@
         <v>-8.1483207167940219E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>70</v>
       </c>
@@ -10130,7 +10126,7 @@
         <v>-9.2442048891846207E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>30</v>
       </c>
@@ -10156,7 +10152,7 @@
         <v>-0.101291292259958</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -10188,7 +10184,7 @@
         <v>-7.923030142457245E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>30</v>
       </c>
@@ -10214,7 +10210,7 @@
         <v>-9.9676025010176555E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>30</v>
       </c>
@@ -10240,7 +10236,7 @@
         <v>-7.2548184671206328E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>30</v>
       </c>
@@ -10266,7 +10262,7 @@
         <v>-4.834254978233634E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>40</v>
       </c>
@@ -10292,7 +10288,7 @@
         <v>-6.9618113790101313E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>40</v>
       </c>
@@ -10318,7 +10314,7 @@
         <v>-7.1617202146286058E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>40</v>
       </c>
@@ -10344,7 +10340,7 @@
         <v>-7.167962884789876E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>30</v>
       </c>
@@ -10370,7 +10366,7 @@
         <v>-5.1418771564680693E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>30</v>
       </c>
@@ -10396,7 +10392,7 @@
         <v>-7.0807580012144697E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>30</v>
       </c>
@@ -10422,7 +10418,7 @@
         <v>-3.5976034493168579E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>40</v>
       </c>
@@ -10448,7 +10444,7 @@
         <v>-5.200201617497776E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>40</v>
       </c>
@@ -10474,7 +10470,7 @@
         <v>-4.4753658611697569E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>40</v>
       </c>
@@ -10500,7 +10496,7 @@
         <v>-5.1593655733412888E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.4">
       <c r="AE25">
         <v>145</v>
       </c>
@@ -10514,7 +10510,7 @@
         <v>-1.6873009989499001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.4">
       <c r="AE26">
         <v>150</v>
       </c>
@@ -10528,7 +10524,7 @@
         <v>-3.9507037074250531E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.4">
       <c r="AE28" t="s">
         <v>22</v>
       </c>
@@ -10548,9 +10544,9 @@
       <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -10636,7 +10632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10722,7 +10718,7 @@
         <v>-8.2322389874183319E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10808,7 +10804,7 @@
         <v>-5.2970513805438643E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10894,7 +10890,7 @@
         <v>-5.7640054384322091E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10980,7 +10976,7 @@
         <v>-7.1973764587693154E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11066,7 +11062,7 @@
         <v>-7.4610315617030493E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11152,7 +11148,7 @@
         <v>-0.1017955563513028</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11238,7 +11234,7 @@
         <v>-6.6726785911078029E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11312,7 +11308,7 @@
         <v>0.26050205246204639</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11389,7 +11385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11463,7 +11459,7 @@
         <v>0.31182615459397728</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -11498,9 +11494,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:178" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:178" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -11610,7 +11606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:178" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:178" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>20</v>
       </c>
@@ -11999,7 +11995,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:178" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:178" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>25</v>
       </c>
@@ -12388,7 +12384,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:178" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:178" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>30</v>
       </c>
@@ -12783,7 +12779,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:178" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:178" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>35</v>
       </c>
@@ -13133,7 +13129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:178" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:178" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>40</v>
       </c>
@@ -13517,7 +13513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:178" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:178" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>45</v>
       </c>
@@ -13903,7 +13899,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:178" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:178" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>50</v>
       </c>
@@ -14091,7 +14087,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:178" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:178" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>55</v>
       </c>
@@ -14180,7 +14176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:178" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:178" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>60</v>
       </c>
@@ -14260,7 +14256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:178" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:178" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>65</v>
       </c>
@@ -14295,7 +14291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:178" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:178" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>70</v>
       </c>
@@ -14330,7 +14326,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:178" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:178" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>75</v>
       </c>
@@ -14365,7 +14361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:178" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:178" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>80</v>
       </c>
@@ -14400,7 +14396,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:178" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:178" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -14426,7 +14422,7 @@
       <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14435,23 +14431,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28FEE85-8900-4E8B-A014-56C0A8952E60}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" style="1"/>
-    <col min="3" max="5" width="30.58203125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="8.6640625" style="1"/>
-    <col min="8" max="9" width="40.58203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="2" width="8.625" style="1"/>
+    <col min="3" max="5" width="30.625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.625" style="1"/>
+    <col min="8" max="9" width="40.625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
         <v>51</v>
@@ -14470,7 +14467,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
         <v>56</v>
       </c>
@@ -14493,7 +14490,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:9" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
@@ -14516,8 +14513,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="7" spans="2:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="2:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
         <v>68</v>
@@ -14529,7 +14526,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="s">
         <v>56</v>
       </c>
@@ -14543,7 +14540,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:9" ht="80.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="11" t="s">
         <v>65</v>
       </c>
